--- a/resources/dataframes_THS_9th_removed_formatted.xlsx
+++ b/resources/dataframes_THS_9th_removed_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\UCSD Data Science Bootcamp\Module Challenges\module 4 pandas - school district analysis\school-district-analysis-pandas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C4382F-EF70-4C7D-AD4F-B37486E1D535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E271E457-F4F2-4F4D-A786-5DD34F8C1334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43470" yWindow="1590" windowWidth="10230" windowHeight="10005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T9 Scores Removed" sheetId="1" r:id="rId1"/>
@@ -259,25 +259,25 @@
     <t>81.6</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>91</t>
+    <t>73.5</t>
+  </si>
+  <si>
+    <t>62.8</t>
+  </si>
+  <si>
+    <t>93.6</t>
+  </si>
+  <si>
+    <t>96.7</t>
+  </si>
+  <si>
+    <t>90.6</t>
+  </si>
+  <si>
+    <t>96.6</t>
+  </si>
+  <si>
+    <t>90.4</t>
   </si>
 </sst>
 </file>
@@ -1350,13 +1350,13 @@
         <v>73</v>
       </c>
       <c r="D2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>77</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2958,10 +2958,10 @@
         <v>76</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3069,13 +3069,13 @@
         <v>73</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
